--- a/src/test/resources/data/jdgroupTA265_TA266_TA271.xlsx
+++ b/src/test/resources/data/jdgroupTA265_TA266_TA271.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37601\Documents\JDGroupICBranchWorkSpaces\TA270\JD_IC_TestAutomation\src\test\resources\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6849577-6B5E-47DD-886D-8DA587CEE6AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IC_ProductsSortBy++" sheetId="39" r:id="rId1"/>
@@ -59,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="553">
   <si>
     <t>TCID</t>
   </si>
@@ -1712,12 +1706,18 @@
   </si>
   <si>
     <t>ClearCart</t>
+  </si>
+  <si>
+    <t>Cart - Add the same Item multiple Times and Verify</t>
+  </si>
+  <si>
+    <t>Cart - Add One Item to the Cart and Verify</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1919,7 +1919,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1986,14 +1986,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -2102,7 +2101,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2135,26 +2134,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2187,23 +2169,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2379,18 +2344,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="22"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="22"/>
+    <col min="3" max="3" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2455,12 +2420,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2508,12 +2473,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2549,12 +2514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -2722,12 +2687,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
@@ -3337,12 +3302,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
@@ -5575,20 +5540,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6040,12 +6005,12 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -6214,24 +6179,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6869,14 +6834,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7108,18 +7073,18 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7772,16 +7737,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="22"/>
-    <col min="4" max="4" width="15.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="22"/>
+    <col min="1" max="3" width="9.140625" style="22"/>
+    <col min="4" max="4" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7824,12 +7789,12 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -8047,20 +8012,20 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8325,17 +8290,17 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8618,14 +8583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -8939,14 +8904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -9583,12 +9548,12 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9820,20 +9785,20 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A97FF80-F47A-4927-9048-1268B9158DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="139.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="139.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10894,13 +10859,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H33" xr:uid="{1B5CFA31-9E7B-4741-BC41-5B115AE4E0B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H33">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G33" xr:uid="{7F060EA8-F588-459A-82F0-0F84E28B3249}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G33">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33" xr:uid="{DE76B115-66AD-4EC2-BA40-11317DD878C9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F33">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10909,12 +10874,12 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -11007,12 +10972,12 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -11080,18 +11045,18 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11369,37 +11334,37 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{9D4B1FC9-6A9A-412C-8C1F-B6BAD4758EDE}"/>
+    <hyperlink ref="D15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E47:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="27.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="2"/>
+    <col min="10" max="11" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -12835,6 +12800,9 @@
       <c r="B47" s="32" t="s">
         <v>531</v>
       </c>
+      <c r="C47" s="2">
+        <v>265</v>
+      </c>
       <c r="D47" s="32" t="s">
         <v>530</v>
       </c>
@@ -12853,13 +12821,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>547</v>
+        <v>551</v>
+      </c>
+      <c r="C48" s="2">
+        <v>271</v>
       </c>
       <c r="D48" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="E48" s="37" t="s">
-        <v>64</v>
+      <c r="E48" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>550</v>
@@ -12874,7 +12845,10 @@
         <v>24</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>548</v>
+        <v>552</v>
+      </c>
+      <c r="C49" s="2">
+        <v>266</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>548</v>
@@ -12906,63 +12880,63 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G29" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="G22:G23" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="H22" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="H23" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="I31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="J2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="J3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="J4" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="J5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="J6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="I8:I9" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="I7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="H37" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="H38" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="I37" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="I38" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="J37" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="J38" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="K37" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="K38" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="L37" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="L38" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="G38" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="G39" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="O43" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="P45" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="I44" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="G44" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="H45" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="J44" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="K44" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="L44" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="M44" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="N44" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="O44" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="Q44" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="G45:G46" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{FE71517A-A0FF-4164-B666-DBFC504B7E22}"/>
+    <hyperlink ref="G29" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G22:G23" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H22" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H23" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J2" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J3" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J4" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J5" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J6" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="I8:I9" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="I7" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="H37" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="H38" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I37" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="I38" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J37" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="J38" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="K37" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="K38" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="L37" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="L38" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G38" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G39" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="O43" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="P45" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="I44" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="G44" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H45" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J44" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K44" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L44" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M44" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N44" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O44" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="Q44" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G45:G46" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12970,12 +12944,12 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -13098,12 +13072,12 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -13216,12 +13190,12 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -13257,12 +13231,12 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -13764,12 +13738,12 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
@@ -14426,12 +14400,12 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -14571,12 +14545,12 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -14766,12 +14740,12 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -14902,12 +14876,12 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -15038,12 +15012,12 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -15174,17 +15148,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D587903-CE57-4C59-A6DB-CB734331903C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15237,12 +15211,12 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -15373,37 +15347,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="22"/>
-    <col min="14" max="14" width="23.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="22"/>
+    <col min="13" max="13" width="9.140625" style="22"/>
+    <col min="14" max="14" width="23.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -15608,28 +15582,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="22"/>
+    <col min="12" max="12" width="17.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15752,24 +15726,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="22"/>
+    <col min="3" max="3" width="22.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15856,26 +15830,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="22"/>
+    <col min="9" max="9" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15980,23 +15954,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="22"/>
+    <col min="7" max="7" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
